--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业客房收入.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业客房收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1717 +623,1355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.47664</v>
+        <v>225.1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.71655</v>
+        <v>17.1</v>
       </c>
       <c r="D2" t="n">
-        <v>38.31434</v>
+        <v>50.3</v>
       </c>
       <c r="E2" t="n">
-        <v>554.7</v>
+        <v>1309.7602</v>
       </c>
       <c r="F2" t="n">
-        <v>2.33641</v>
+        <v>17.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01692</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>91.69833</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>331.6</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.7657</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>401.06758</v>
+        <v>1065.3</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6754</v>
+        <v>1.4</v>
       </c>
       <c r="N2" t="n">
-        <v>163.97953</v>
+        <v>250.1</v>
       </c>
       <c r="O2" t="n">
-        <v>11.14961</v>
+        <v>15.4</v>
       </c>
       <c r="P2" t="n">
-        <v>5.62524</v>
+        <v>3.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>67.48754</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>0.39211</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>13.06454</v>
+        <v>41.3</v>
       </c>
       <c r="T2" t="n">
-        <v>529.2252</v>
+        <v>1058.5</v>
       </c>
       <c r="U2" t="n">
-        <v>102.84794</v>
+        <v>347</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>20.97671</v>
+        <v>19.3</v>
       </c>
       <c r="X2" t="n">
-        <v>58.99925</v>
+        <v>72.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>86.16364</v>
+        <v>133.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.52778</v>
+        <v>2.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.6599</v>
+        <v>39.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.80853999999999</v>
+        <v>354.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.34451</v>
+        <v>15.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>49.31015</v>
+        <v>249.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.62813</v>
+        <v>68.2</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.52575</v>
+        <v>21.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.53814</v>
+        <v>6.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.98962</v>
+        <v>10.3</v>
       </c>
       <c r="AI2" t="n">
-        <v>23.97313</v>
+        <v>47.1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23.59427</v>
+        <v>32.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.4718</v>
+        <v>0.9</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>268.6026</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.8406</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.2441</v>
+      </c>
       <c r="E3" t="n">
-        <v>661.1</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>1535.3203</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47.7047</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31.1084</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>429.0819</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3523</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1270.0074</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8722</v>
+      </c>
+      <c r="N3" t="n">
+        <v>269.391</v>
+      </c>
+      <c r="O3" t="n">
+        <v>17.475</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.0776</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>114.5349</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.9131</v>
+      </c>
+      <c r="S3" t="n">
+        <v>43.2279</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1235.6093</v>
+      </c>
+      <c r="U3" t="n">
+        <v>446.5569</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>19.7161</v>
+      </c>
+      <c r="X3" t="n">
+        <v>80.7376</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>150.7781</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4.5571</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>45.415</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>399.3212</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17.9594</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>285.7612</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>71.0595</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>24.5411</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6.1425</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10.5901</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>56.1661</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34.1351</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.0736</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>299.67145</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.66276</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.05457</v>
+      </c>
       <c r="E4" t="n">
-        <v>742.2</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>1617.91349</v>
+      </c>
+      <c r="F4" t="n">
+        <v>51.97308</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34.49082</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="I4" t="n">
+        <v>479.78549</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.13851</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.01918</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1348.13593</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.93557</v>
+      </c>
+      <c r="N4" t="n">
+        <v>267.19033</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19.13723</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>115.1435</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.70017</v>
+      </c>
+      <c r="S4" t="n">
+        <v>41.3075</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1283.75122</v>
+      </c>
+      <c r="U4" t="n">
+        <v>498.92272</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>19.42281</v>
+      </c>
+      <c r="X4" t="n">
+        <v>78.59549</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>154.63406</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4.96328</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51.51397</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>429.67019</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>17.9652</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>313.08514</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>73.54613999999999</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25.07371</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.00028</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10.28563</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>51.0358</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>33.0579</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.79753</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>379.57239</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.57951</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.21387</v>
+      </c>
       <c r="E5" t="n">
-        <v>851.67481</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+        <v>1705.42678</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.79949</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40.61631</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.26802</v>
+      </c>
+      <c r="I5" t="n">
+        <v>562.11527</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.76234</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.31311</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1435.64294</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5901</v>
+      </c>
+      <c r="N5" t="n">
+        <v>227.48605</v>
+      </c>
+      <c r="O5" t="n">
+        <v>45.7851</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.54447</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>114.7214</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.77223</v>
+      </c>
+      <c r="S5" t="n">
+        <v>47.88777</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1285.23808</v>
+      </c>
+      <c r="U5" t="n">
+        <v>607.90037</v>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>17.54358</v>
+      </c>
+      <c r="X5" t="n">
+        <v>73.27148</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>155.06244</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5.18874</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>58.2963</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>492.77642</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12.09942</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>400.39937</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>52.49566</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>27.78197</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3.02659</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.22261</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>56.02494</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>26.40647</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.57891</v>
+      </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.9735</v>
+        <v>384.7615</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6294</v>
+        <v>10.87112</v>
       </c>
       <c r="D6" t="n">
-        <v>55.5386</v>
+        <v>47.88628</v>
       </c>
       <c r="E6" t="n">
-        <v>1064.5796</v>
+        <v>1739.2</v>
       </c>
       <c r="F6" t="n">
-        <v>9.103</v>
+        <v>15.20284</v>
       </c>
       <c r="G6" t="n">
-        <v>16.4558</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>39.74198</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.39555</v>
+      </c>
       <c r="I6" t="n">
-        <v>230.6868</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>603.33099</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.23969</v>
+      </c>
       <c r="K6" t="n">
-        <v>1.1746</v>
+        <v>0.19206</v>
       </c>
       <c r="L6" t="n">
-        <v>830.6236</v>
+        <v>1468.28839</v>
       </c>
       <c r="M6" t="n">
-        <v>1.3501</v>
+        <v>0.56384</v>
       </c>
       <c r="N6" t="n">
-        <v>236.991</v>
+        <v>183.33707</v>
       </c>
       <c r="O6" t="n">
-        <v>15.4969</v>
+        <v>49.16832</v>
       </c>
       <c r="P6" t="n">
-        <v>3.049</v>
+        <v>1.38376</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.8362</v>
+        <v>102.83782</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4925</v>
+        <v>2.6776</v>
       </c>
       <c r="S6" t="n">
-        <v>35.1758</v>
+        <v>39.00727</v>
       </c>
       <c r="T6" t="n">
-        <v>890.1503</v>
+        <v>1314.68485</v>
       </c>
       <c r="U6" t="n">
-        <v>246.1836</v>
+        <v>652.49931</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>17.932</v>
+        <v>24.05394</v>
       </c>
       <c r="X6" t="n">
-        <v>76.2435</v>
+        <v>69.75184</v>
       </c>
       <c r="Y6" t="n">
-        <v>122.1197</v>
+        <v>168.06212</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.9492</v>
+        <v>6.07464</v>
       </c>
       <c r="AA6" t="n">
-        <v>25.995</v>
+        <v>67.94201</v>
       </c>
       <c r="AB6" t="n">
-        <v>251.4855</v>
+        <v>531.21316</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.4013</v>
+        <v>11.55328</v>
       </c>
       <c r="AD6" t="n">
-        <v>174.2647</v>
+        <v>436.70605</v>
       </c>
       <c r="AE6" t="n">
-        <v>48.4442</v>
+        <v>55.09433</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.3753</v>
+        <v>27.8595</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.8159</v>
+        <v>2.45375</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.1779</v>
+        <v>4.56066</v>
       </c>
       <c r="AI6" t="n">
-        <v>39.9779</v>
+        <v>54.72606</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29.8888</v>
+        <v>24.29554</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.2422</v>
+        <v>0.31409</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.82998</v>
+        <v>403.7693</v>
       </c>
       <c r="C7" t="n">
-        <v>13.33861</v>
+        <v>9.9679</v>
       </c>
       <c r="D7" t="n">
-        <v>43.91963</v>
+        <v>46.8099</v>
       </c>
       <c r="E7" t="n">
-        <v>1041.19403</v>
+        <v>1803.1021</v>
       </c>
       <c r="F7" t="n">
-        <v>14.17823</v>
+        <v>14.9693</v>
       </c>
       <c r="G7" t="n">
-        <v>19.07613</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>44.6905</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.0109</v>
+      </c>
       <c r="I7" t="n">
-        <v>244.16072</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>639.2415999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8302</v>
+      </c>
       <c r="K7" t="n">
-        <v>0.46353</v>
+        <v>0.2512</v>
       </c>
       <c r="L7" t="n">
-        <v>838.33719</v>
+        <v>1536.7961</v>
       </c>
       <c r="M7" t="n">
-        <v>1.34381</v>
+        <v>0.4042</v>
       </c>
       <c r="N7" t="n">
-        <v>224.95944</v>
+        <v>180.6596</v>
       </c>
       <c r="O7" t="n">
-        <v>13.49351</v>
+        <v>52.6517</v>
       </c>
       <c r="P7" t="n">
-        <v>2.90577</v>
+        <v>1.816</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.81598</v>
+        <v>94.29340000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>2.484</v>
+        <v>2.672</v>
       </c>
       <c r="S7" t="n">
-        <v>33.07374</v>
+        <v>31.8328</v>
       </c>
       <c r="T7" t="n">
-        <v>856.28792</v>
+        <v>1354.6431</v>
       </c>
       <c r="U7" t="n">
-        <v>257.65423</v>
+        <v>691.8932</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>16.7617</v>
+        <v>21.5526</v>
       </c>
       <c r="X7" t="n">
-        <v>62.23513</v>
+        <v>70.9457</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.04086</v>
+        <v>172.0132</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.46638</v>
+        <v>4.3825</v>
       </c>
       <c r="AA7" t="n">
-        <v>28.57765</v>
+        <v>74.3027</v>
       </c>
       <c r="AB7" t="n">
-        <v>263.56876</v>
+        <v>564.4177</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.4314</v>
+        <v>11.735</v>
       </c>
       <c r="AD7" t="n">
-        <v>186.63723</v>
+        <v>468.087</v>
       </c>
       <c r="AE7" t="n">
-        <v>48.0968</v>
+        <v>55.2703</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.40333</v>
+        <v>29.3255</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.09092</v>
+        <v>2.7091</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.086320000000001</v>
+        <v>4.6371</v>
       </c>
       <c r="AI7" t="n">
-        <v>37.14628</v>
+        <v>55.0325</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26.65301</v>
+        <v>22.4783</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.37781</v>
+        <v>0.2378</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.1</v>
+        <v>454.743</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1</v>
+        <v>12.2014</v>
       </c>
       <c r="D8" t="n">
-        <v>50.3</v>
+        <v>40.4949</v>
       </c>
       <c r="E8" t="n">
-        <v>1309.7602</v>
+        <v>1907.2278</v>
       </c>
       <c r="F8" t="n">
-        <v>17.7</v>
+        <v>12.0484</v>
       </c>
       <c r="G8" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>46.2682</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.2046</v>
+      </c>
       <c r="I8" t="n">
-        <v>331.6</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>693.3062</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.048</v>
+      </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.1766</v>
       </c>
       <c r="L8" t="n">
-        <v>1065.3</v>
+        <v>1635.5554</v>
       </c>
       <c r="M8" t="n">
-        <v>1.4</v>
+        <v>0.3444</v>
       </c>
       <c r="N8" t="n">
-        <v>250.1</v>
+        <v>172.8822</v>
       </c>
       <c r="O8" t="n">
-        <v>15.4</v>
+        <v>61.9885</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>1.4354</v>
       </c>
       <c r="Q8" t="n">
-        <v>111</v>
+        <v>94.0218</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>2.9438</v>
       </c>
       <c r="S8" t="n">
-        <v>41.3</v>
+        <v>35.1777</v>
       </c>
       <c r="T8" t="n">
-        <v>1058.5</v>
+        <v>1406.217</v>
       </c>
       <c r="U8" t="n">
-        <v>347</v>
+        <v>755.2941</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>19.3</v>
+        <v>21.3635</v>
       </c>
       <c r="X8" t="n">
-        <v>72.3</v>
+        <v>72.8509</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.4</v>
+        <v>177.6507</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.6</v>
+        <v>4.806</v>
       </c>
       <c r="AA8" t="n">
-        <v>39.2</v>
+        <v>77.58280000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>354.4</v>
+        <v>609.7437</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.8</v>
+        <v>11.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>249.2</v>
+        <v>514.9021</v>
       </c>
       <c r="AE8" t="n">
-        <v>68.2</v>
+        <v>53.7645</v>
       </c>
       <c r="AF8" t="n">
-        <v>21.3</v>
+        <v>29.1774</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.4</v>
+        <v>2.1744</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.3</v>
+        <v>4.014</v>
       </c>
       <c r="AI8" t="n">
-        <v>47.1</v>
+        <v>58.835</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32.4</v>
+        <v>20.5651</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.9</v>
+        <v>0.2181</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>268.6026</v>
+        <v>537.417</v>
       </c>
       <c r="C9" t="n">
-        <v>16.8406</v>
+        <v>15.383</v>
       </c>
       <c r="D9" t="n">
-        <v>52.2441</v>
+        <v>41.544</v>
       </c>
       <c r="E9" t="n">
-        <v>1535.3203</v>
+        <v>2051.2415</v>
       </c>
       <c r="F9" t="n">
-        <v>47.7047</v>
+        <v>8.785</v>
       </c>
       <c r="G9" t="n">
-        <v>31.1084</v>
+        <v>51.474</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3092</v>
+        <v>4.118</v>
       </c>
       <c r="I9" t="n">
-        <v>429.0819</v>
+        <v>740.965</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3523</v>
+        <v>1.395</v>
       </c>
       <c r="K9" t="n">
-        <v>1.119</v>
+        <v>0.264</v>
       </c>
       <c r="L9" t="n">
-        <v>1270.0074</v>
+        <v>1778.2575</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8722</v>
+        <v>0.374</v>
       </c>
       <c r="N9" t="n">
-        <v>269.391</v>
+        <v>158.911</v>
       </c>
       <c r="O9" t="n">
-        <v>17.475</v>
+        <v>70.45099999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>3.0776</v>
+        <v>1.238</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.5349</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9131</v>
+        <v>2.268</v>
       </c>
       <c r="S9" t="n">
-        <v>43.2279</v>
+        <v>35.868</v>
       </c>
       <c r="T9" t="n">
-        <v>1235.6093</v>
+        <v>1462.351</v>
       </c>
       <c r="U9" t="n">
-        <v>446.5569</v>
+        <v>811.4160000000001</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>19.7161</v>
+        <v>19.258</v>
       </c>
       <c r="X9" t="n">
-        <v>80.7376</v>
+        <v>70.001</v>
       </c>
       <c r="Y9" t="n">
-        <v>150.7781</v>
+        <v>173.804</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.5571</v>
+        <v>5.716</v>
       </c>
       <c r="AA9" t="n">
-        <v>45.415</v>
+        <v>77.434</v>
       </c>
       <c r="AB9" t="n">
-        <v>399.3212</v>
+        <v>717.393</v>
       </c>
       <c r="AC9" t="n">
-        <v>17.9594</v>
+        <v>10.713</v>
       </c>
       <c r="AD9" t="n">
-        <v>285.7612</v>
+        <v>630.032</v>
       </c>
       <c r="AE9" t="n">
-        <v>71.0595</v>
+        <v>47.948</v>
       </c>
       <c r="AF9" t="n">
-        <v>24.5411</v>
+        <v>28.699</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.1425</v>
+        <v>2.063</v>
       </c>
       <c r="AH9" t="n">
-        <v>10.5901</v>
+        <v>3.397</v>
       </c>
       <c r="AI9" t="n">
-        <v>56.1661</v>
+        <v>57.706</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34.1351</v>
+        <v>18.586</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.0736</v>
+        <v>0.187</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>299.67145</v>
+        <v>561.3</v>
       </c>
       <c r="C10" t="n">
-        <v>16.66276</v>
+        <v>13.6</v>
       </c>
       <c r="D10" t="n">
-        <v>55.05457</v>
+        <v>40.4</v>
       </c>
       <c r="E10" t="n">
-        <v>1617.91349</v>
+        <v>2130.6</v>
       </c>
       <c r="F10" t="n">
-        <v>51.97308</v>
+        <v>1.1</v>
       </c>
       <c r="G10" t="n">
-        <v>34.49082</v>
+        <v>45.8</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4185</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>479.78549</v>
+        <v>744.8</v>
       </c>
       <c r="J10" t="n">
-        <v>0.13851</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.01918</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1348.13593</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.93557</v>
-      </c>
+        <v>1857.6</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>267.19033</v>
+        <v>134.1</v>
       </c>
       <c r="O10" t="n">
-        <v>19.13723</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>3.248</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.1435</v>
+        <v>98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.70017</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>41.3075</v>
+        <v>37.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1283.75122</v>
+        <v>1518.9</v>
       </c>
       <c r="U10" t="n">
-        <v>498.92272</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>822.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.6</v>
+      </c>
       <c r="W10" t="n">
-        <v>19.42281</v>
+        <v>20.3</v>
       </c>
       <c r="X10" t="n">
-        <v>78.59549</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.63406</v>
+        <v>175</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.96328</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>51.51397</v>
+        <v>77.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>429.67019</v>
+        <v>820.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>17.9652</v>
+        <v>9.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>313.08514</v>
+        <v>748</v>
       </c>
       <c r="AE10" t="n">
-        <v>73.54613999999999</v>
+        <v>42.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>25.07371</v>
+        <v>20.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.00028</v>
+        <v>2.4</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.28563</v>
+        <v>3.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>51.0358</v>
+        <v>57.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>33.0579</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.79753</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.57239</v>
+        <v>725.482</v>
       </c>
       <c r="C11" t="n">
-        <v>13.57951</v>
+        <v>13.0201</v>
       </c>
       <c r="D11" t="n">
-        <v>51.21387</v>
+        <v>36.4923</v>
       </c>
       <c r="E11" t="n">
-        <v>1705.42678</v>
+        <v>2345.6252</v>
       </c>
       <c r="F11" t="n">
-        <v>16.79949</v>
+        <v>0.2487</v>
       </c>
       <c r="G11" t="n">
-        <v>40.61631</v>
+        <v>65.1003</v>
       </c>
       <c r="H11" t="n">
-        <v>0.26802</v>
+        <v>1.5682</v>
       </c>
       <c r="I11" t="n">
-        <v>562.11527</v>
+        <v>770.7078</v>
       </c>
       <c r="J11" t="n">
-        <v>0.76234</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.31311</v>
-      </c>
+        <v>1.012</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1435.64294</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.5901</v>
-      </c>
+        <v>2070.3727</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>227.48605</v>
+        <v>128.6255</v>
       </c>
       <c r="O11" t="n">
-        <v>45.7851</v>
+        <v>84.0665</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54447</v>
+        <v>1.2482</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.7214</v>
+        <v>101.7786</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77223</v>
+        <v>8.1388</v>
       </c>
       <c r="S11" t="n">
-        <v>47.88777</v>
+        <v>42.5598</v>
       </c>
       <c r="T11" t="n">
-        <v>1285.23808</v>
+        <v>1547.4336</v>
       </c>
       <c r="U11" t="n">
-        <v>607.90037</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>854.7736</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.2285</v>
+      </c>
       <c r="W11" t="n">
-        <v>17.54358</v>
+        <v>14.9256</v>
       </c>
       <c r="X11" t="n">
-        <v>73.27148</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>155.06244</v>
+        <v>173.4741</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.18874</v>
+        <v>2.4955</v>
       </c>
       <c r="AA11" t="n">
-        <v>58.2963</v>
+        <v>82.7809</v>
       </c>
       <c r="AB11" t="n">
-        <v>492.77642</v>
+        <v>1008.9482</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.09942</v>
+        <v>9.844900000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>400.39937</v>
+        <v>933.4952</v>
       </c>
       <c r="AE11" t="n">
-        <v>52.49566</v>
+        <v>43.7505</v>
       </c>
       <c r="AF11" t="n">
-        <v>27.78197</v>
+        <v>21.8569</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.02659</v>
+        <v>1.8818</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.22261</v>
+        <v>3.4528</v>
       </c>
       <c r="AI11" t="n">
-        <v>56.02494</v>
+        <v>56.9189</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26.40647</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.57891</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>15.5238</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>0.3804</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384.7615</v>
+        <v>606.4930000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>10.87112</v>
+        <v>5.0159</v>
       </c>
       <c r="D12" t="n">
-        <v>47.88628</v>
+        <v>21.9766</v>
       </c>
       <c r="E12" t="n">
-        <v>1739.2</v>
+        <v>1777.8004</v>
       </c>
       <c r="F12" t="n">
-        <v>15.20284</v>
+        <v>0.7786999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>39.74198</v>
+        <v>53.0166</v>
       </c>
       <c r="H12" t="n">
-        <v>2.39555</v>
+        <v>0.8541</v>
       </c>
       <c r="I12" t="n">
-        <v>603.33099</v>
+        <v>462.0914</v>
       </c>
       <c r="J12" t="n">
-        <v>0.23969</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.19206</v>
-      </c>
+        <v>0.4233</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1468.28839</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.56384</v>
-      </c>
+        <v>1613.8361</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>183.33707</v>
+        <v>90.6801</v>
       </c>
       <c r="O12" t="n">
-        <v>49.16832</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.38376</v>
-      </c>
+        <v>54.1799</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>102.83782</v>
+        <v>57.688</v>
       </c>
       <c r="R12" t="n">
-        <v>2.6776</v>
+        <v>1.7517</v>
       </c>
       <c r="S12" t="n">
-        <v>39.00727</v>
+        <v>28.0902</v>
       </c>
       <c r="T12" t="n">
-        <v>1314.68485</v>
+        <v>1110.5407</v>
       </c>
       <c r="U12" t="n">
-        <v>652.49931</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>516.2713</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7.2488</v>
+      </c>
       <c r="W12" t="n">
-        <v>24.05394</v>
+        <v>7.1682</v>
       </c>
       <c r="X12" t="n">
-        <v>69.75184</v>
+        <v>40.5627</v>
       </c>
       <c r="Y12" t="n">
-        <v>168.06212</v>
+        <v>106.2762</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.07464</v>
+        <v>1.227</v>
       </c>
       <c r="AA12" t="n">
-        <v>67.94201</v>
+        <v>56.8955</v>
       </c>
       <c r="AB12" t="n">
-        <v>531.21316</v>
+        <v>960.1005</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.55328</v>
+        <v>8.6465</v>
       </c>
       <c r="AD12" t="n">
-        <v>436.70605</v>
+        <v>893.5159</v>
       </c>
       <c r="AE12" t="n">
-        <v>55.09433</v>
+        <v>46.585</v>
       </c>
       <c r="AF12" t="n">
-        <v>27.8595</v>
+        <v>11.3534</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.45375</v>
+        <v>2.2526</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.56066</v>
+        <v>3.1755</v>
       </c>
       <c r="AI12" t="n">
-        <v>54.72606</v>
+        <v>31.4709</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24.29554</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.31409</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>9.1066</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>0.5014</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>403.7693</v>
+        <v>801.7688000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.9679</v>
+        <v>8.122</v>
       </c>
       <c r="D13" t="n">
-        <v>46.8099</v>
+        <v>26.4091</v>
       </c>
       <c r="E13" t="n">
-        <v>1803.1021</v>
+        <v>2236.8699</v>
       </c>
       <c r="F13" t="n">
-        <v>14.9693</v>
+        <v>0.366</v>
       </c>
       <c r="G13" t="n">
-        <v>44.6905</v>
+        <v>64.80759999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0109</v>
+        <v>1.7908</v>
       </c>
       <c r="I13" t="n">
-        <v>639.2415999999999</v>
+        <v>562.7002</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8302</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2512</v>
-      </c>
+        <v>0.7060999999999999</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1536.7961</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.4042</v>
-      </c>
+        <v>2030.3796</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>180.6596</v>
+        <v>89.4109</v>
       </c>
       <c r="O13" t="n">
-        <v>52.6517</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.816</v>
-      </c>
+        <v>75.07340000000001</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>94.29340000000001</v>
+        <v>76.5459</v>
       </c>
       <c r="R13" t="n">
-        <v>2.672</v>
+        <v>1.4124</v>
       </c>
       <c r="S13" t="n">
-        <v>31.8328</v>
+        <v>38.8116</v>
       </c>
       <c r="T13" t="n">
-        <v>1354.6431</v>
+        <v>1357.2959</v>
       </c>
       <c r="U13" t="n">
-        <v>691.8932</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+        <v>637.7736</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12.3629</v>
+      </c>
       <c r="W13" t="n">
-        <v>21.5526</v>
+        <v>8.6524</v>
       </c>
       <c r="X13" t="n">
-        <v>70.9457</v>
+        <v>48.8168</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.0132</v>
+        <v>129.9443</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.3825</v>
+        <v>3.769</v>
       </c>
       <c r="AA13" t="n">
-        <v>74.3027</v>
+        <v>68.0001</v>
       </c>
       <c r="AB13" t="n">
-        <v>564.4177</v>
+        <v>1259.7263</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.735</v>
+        <v>10.4589</v>
       </c>
       <c r="AD13" t="n">
-        <v>468.087</v>
+        <v>1176.6333</v>
       </c>
       <c r="AE13" t="n">
-        <v>55.2703</v>
+        <v>58.5073</v>
       </c>
       <c r="AF13" t="n">
-        <v>29.3255</v>
+        <v>14.1268</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.7091</v>
+        <v>1.2716</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.6371</v>
+        <v>2.9834</v>
       </c>
       <c r="AI13" t="n">
-        <v>55.0325</v>
+        <v>28.329</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22.4783</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.2378</v>
-      </c>
-      <c r="AL13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>454.743</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.2014</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40.4949</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1907.2278</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12.0484</v>
-      </c>
-      <c r="G14" t="n">
-        <v>46.2682</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.2046</v>
-      </c>
-      <c r="I14" t="n">
-        <v>693.3062</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.048</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1766</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1635.5554</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.3444</v>
-      </c>
-      <c r="N14" t="n">
-        <v>172.8822</v>
-      </c>
-      <c r="O14" t="n">
-        <v>61.9885</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.4354</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>94.0218</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.9438</v>
-      </c>
-      <c r="S14" t="n">
-        <v>35.1777</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1406.217</v>
-      </c>
-      <c r="U14" t="n">
-        <v>755.2941</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>21.3635</v>
-      </c>
-      <c r="X14" t="n">
-        <v>72.8509</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>177.6507</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>4.806</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>77.58280000000001</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>609.7437</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>514.9021</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>53.7645</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>29.1774</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.1744</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>4.014</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>58.835</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>20.5651</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.2181</v>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>537.417</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.383</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41.544</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2051.2415</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8.785</v>
-      </c>
-      <c r="G15" t="n">
-        <v>51.474</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="I15" t="n">
-        <v>740.965</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.395</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1778.2575</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="N15" t="n">
-        <v>158.911</v>
-      </c>
-      <c r="O15" t="n">
-        <v>70.45099999999999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.238</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>99.18000000000001</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.268</v>
-      </c>
-      <c r="S15" t="n">
-        <v>35.868</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1462.351</v>
-      </c>
-      <c r="U15" t="n">
-        <v>811.4160000000001</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>19.258</v>
-      </c>
-      <c r="X15" t="n">
-        <v>70.001</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>173.804</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>5.716</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>77.434</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>717.393</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.713</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>630.032</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>47.948</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>28.699</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>2.063</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>3.397</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>57.706</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>18.586</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>561.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2130.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>744.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1857.6</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>134.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>98</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1518.9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>822.4</v>
-      </c>
-      <c r="V16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W16" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>175</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>820.8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>748</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>725.482</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13.0201</v>
-      </c>
-      <c r="D17" t="n">
-        <v>36.4923</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2345.6252</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2487</v>
-      </c>
-      <c r="G17" t="n">
-        <v>65.1003</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.5682</v>
-      </c>
-      <c r="I17" t="n">
-        <v>770.7078</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.012</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>2070.3727</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>128.6255</v>
-      </c>
-      <c r="O17" t="n">
-        <v>84.0665</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.2482</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>101.7786</v>
-      </c>
-      <c r="R17" t="n">
-        <v>8.1388</v>
-      </c>
-      <c r="S17" t="n">
-        <v>42.5598</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1547.4336</v>
-      </c>
-      <c r="U17" t="n">
-        <v>854.7736</v>
-      </c>
-      <c r="V17" t="n">
-        <v>7.2285</v>
-      </c>
-      <c r="W17" t="n">
-        <v>14.9256</v>
-      </c>
-      <c r="X17" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>173.4741</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2.4955</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>82.7809</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1008.9482</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.844900000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>933.4952</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>43.7505</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>21.8569</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.8818</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>3.4528</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>56.9189</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>15.5238</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="n">
-        <v>0.3804</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>606.4930000000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.0159</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.9766</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1777.8004</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7786999999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>53.0166</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.8541</v>
-      </c>
-      <c r="I18" t="n">
-        <v>462.0914</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4233</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1613.8361</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>90.6801</v>
-      </c>
-      <c r="O18" t="n">
-        <v>54.1799</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>57.688</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.7517</v>
-      </c>
-      <c r="S18" t="n">
-        <v>28.0902</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1110.5407</v>
-      </c>
-      <c r="U18" t="n">
-        <v>516.2713</v>
-      </c>
-      <c r="V18" t="n">
-        <v>7.2488</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.1682</v>
-      </c>
-      <c r="X18" t="n">
-        <v>40.5627</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>106.2762</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.227</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>56.8955</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>960.1005</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.6465</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>893.5159</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>46.585</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.3534</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.2526</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>3.1755</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>31.4709</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.1066</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="n">
-        <v>0.5014</v>
+        <v>10.5187</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>0.6346000000000001</v>
       </c>
     </row>
   </sheetData>
